--- a/manual Testing/class 9 RTM_Login.xlsx
+++ b/manual Testing/class 9 RTM_Login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Murali\Training\Git\JavaSelenium\manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4ACB5-D487-4906-BE43-F70AD944BEE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5174C8D9-8914-4B6F-B55D-A5E3390286D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Reviewer/Approver</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>Test Case ID(Refer Test case document)</t>
+  </si>
+  <si>
+    <t>Account lock</t>
+  </si>
+  <si>
+    <t>TC10, TC 11, TC12</t>
+  </si>
+  <si>
+    <t>DEFCET_123</t>
+  </si>
+  <si>
+    <t>TC13, TC14</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -171,21 +183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -241,19 +238,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -265,13 +249,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -279,28 +261,26 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -315,47 +295,47 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,53 +690,54 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -767,19 +748,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="15" t="s">
@@ -788,116 +769,164 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -906,12 +935,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,17 +1003,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1008,16 +1044,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/manual Testing/class 9 RTM_Login.xlsx
+++ b/manual Testing/class 9 RTM_Login.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Murali\Training\Git\JavaSelenium\manual Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5174C8D9-8914-4B6F-B55D-A5E3390286D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{48A06F58-C6B5-4D5D-8602-43229A82F868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix Grid" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G22"/>
 </workbook>
 </file>
 
@@ -679,7 +675,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,11 +931,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,25 +1000,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1044,9 +1033,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>